--- a/pub/Masonic/Degree Furniture & Implements.xlsx
+++ b/pub/Masonic/Degree Furniture & Implements.xlsx
@@ -99,9 +99,6 @@
     <t>Master's Hat</t>
   </si>
   <si>
-    <t>Warrant</t>
-  </si>
-  <si>
     <t>RWM's Gavel</t>
   </si>
   <si>
@@ -280,6 +277,9 @@
   </si>
   <si>
     <t>Square &amp; Compass on Bible</t>
+  </si>
+  <si>
+    <t>Charter</t>
   </si>
 </sst>
 </file>
@@ -685,7 +685,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.75">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75">
@@ -698,77 +698,77 @@
     <row r="4" spans="1:3" ht="15.75">
       <c r="A4" s="4"/>
       <c r="B4" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C4" s="7"/>
     </row>
     <row r="5" spans="1:3" ht="15.75">
       <c r="A5" s="4"/>
       <c r="B5" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C5" s="7"/>
     </row>
     <row r="6" spans="1:3" ht="15.75">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C6" s="7"/>
     </row>
     <row r="7" spans="1:3" ht="15.75">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C7" s="7"/>
     </row>
     <row r="8" spans="1:3" ht="15.75">
       <c r="A8" s="4"/>
       <c r="B8" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C8" s="7"/>
     </row>
     <row r="9" spans="1:3" ht="15.75">
       <c r="A9" s="4"/>
       <c r="B9" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C9" s="7"/>
     </row>
     <row r="10" spans="1:3" ht="15.75">
       <c r="A10" s="4"/>
       <c r="B10" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C10" s="7"/>
     </row>
     <row r="11" spans="1:3" ht="15.75">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C11" s="7"/>
     </row>
     <row r="12" spans="1:3" ht="15.75">
       <c r="A12" s="4"/>
       <c r="B12" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C12" s="7"/>
     </row>
     <row r="13" spans="1:3" ht="15.75">
       <c r="A13" s="4"/>
       <c r="B13" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C13" s="7"/>
     </row>
     <row r="14" spans="1:3" ht="15.75">
       <c r="A14" s="4"/>
       <c r="B14" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C14" s="7"/>
     </row>
@@ -782,7 +782,7 @@
     <row r="16" spans="1:3" ht="15.75">
       <c r="A16" s="4"/>
       <c r="B16" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C16" s="7"/>
     </row>
@@ -826,7 +826,7 @@
     <row r="22" spans="1:5" ht="15.75">
       <c r="A22" s="4"/>
       <c r="B22" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C22" s="7"/>
     </row>
@@ -859,49 +859,49 @@
     <row r="27" spans="1:5" ht="15.75">
       <c r="A27" s="4"/>
       <c r="B27" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C27" s="7"/>
     </row>
     <row r="28" spans="1:5" ht="15.75">
       <c r="A28" s="4"/>
       <c r="B28" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C28" s="7"/>
     </row>
     <row r="29" spans="1:5" ht="15.75">
       <c r="A29" s="4"/>
       <c r="B29" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C29" s="7"/>
     </row>
     <row r="30" spans="1:5" ht="15.75">
       <c r="A30" s="4"/>
       <c r="B30" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C30" s="7"/>
     </row>
     <row r="31" spans="1:5" ht="15.75">
       <c r="A31" s="4"/>
       <c r="B31" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C31" s="7"/>
     </row>
     <row r="32" spans="1:5" ht="15.75">
       <c r="A32" s="4"/>
       <c r="B32" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C32" s="7"/>
     </row>
     <row r="33" spans="1:10" ht="15.75">
       <c r="A33" s="4"/>
       <c r="B33" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C33" s="7"/>
     </row>
@@ -921,8 +921,8 @@
     </row>
     <row r="36" spans="1:10" ht="15.75">
       <c r="A36" s="4"/>
-      <c r="B36" s="4" t="s">
-        <v>27</v>
+      <c r="B36" s="3" t="s">
+        <v>87</v>
       </c>
       <c r="C36" s="7"/>
       <c r="I36" s="7"/>
@@ -966,28 +966,28 @@
     <row r="42" spans="1:10" ht="15.75">
       <c r="A42" s="4"/>
       <c r="B42" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C42" s="7"/>
     </row>
     <row r="43" spans="1:10" ht="15.75">
       <c r="A43" s="4"/>
       <c r="B43" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C43" s="7"/>
     </row>
     <row r="44" spans="1:10" ht="15.75">
       <c r="A44" s="4"/>
       <c r="B44" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C44" s="7"/>
     </row>
     <row r="45" spans="1:10" ht="15.75">
       <c r="A45" s="4"/>
       <c r="B45" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C45" s="7"/>
     </row>
@@ -1001,28 +1001,28 @@
     <row r="47" spans="1:10" ht="15.75">
       <c r="A47" s="4"/>
       <c r="B47" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C47" s="7"/>
     </row>
     <row r="48" spans="1:10" ht="15.75">
       <c r="A48" s="4"/>
       <c r="B48" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C48" s="7"/>
     </row>
     <row r="49" spans="1:3" ht="15.75">
       <c r="A49" s="4"/>
       <c r="B49" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C49" s="7"/>
     </row>
     <row r="50" spans="1:3" ht="15.75">
       <c r="A50" s="4"/>
       <c r="B50" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C50" s="7"/>
     </row>
@@ -1061,37 +1061,37 @@
     <row r="56" spans="1:3">
       <c r="A56" s="4"/>
       <c r="B56" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="4"/>
       <c r="B57" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="4"/>
       <c r="B58" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="4"/>
       <c r="B59" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="4"/>
       <c r="B60" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="4"/>
       <c r="B61" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1133,7 +1133,7 @@
     <row r="68" spans="1:2">
       <c r="A68" s="4"/>
       <c r="B68" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1145,7 +1145,7 @@
     <row r="70" spans="1:2">
       <c r="A70" s="5"/>
       <c r="B70" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1157,49 +1157,49 @@
     <row r="72" spans="1:2">
       <c r="A72" s="4"/>
       <c r="B72" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="4"/>
       <c r="B73" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="4"/>
       <c r="B74" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="4"/>
       <c r="B75" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="4"/>
       <c r="B76" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="4"/>
       <c r="B77" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="4"/>
       <c r="B78" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="4"/>
       <c r="B79" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1208,50 +1208,50 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B81" s="4"/>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="4"/>
       <c r="B82" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="4"/>
       <c r="B83" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="4"/>
       <c r="B84" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="4"/>
       <c r="B85" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="4"/>
       <c r="B86" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="4"/>
       <c r="B87" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="4"/>
       <c r="B88" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1260,104 +1260,104 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B90" s="4"/>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="4"/>
       <c r="B91" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="4"/>
       <c r="B92" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="4"/>
       <c r="B93" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="4"/>
       <c r="B94" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="4"/>
       <c r="B95" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="4"/>
       <c r="B96" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="4"/>
       <c r="B97" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="4"/>
       <c r="B98" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="4"/>
       <c r="B99" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="4"/>
       <c r="B100" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="5"/>
       <c r="B101" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="4"/>
       <c r="B102" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="4"/>
       <c r="B103" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="4"/>
       <c r="B104" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="4"/>
       <c r="B105" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="4"/>
       <c r="B106" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/pub/Masonic/Degree Furniture & Implements.xlsx
+++ b/pub/Masonic/Degree Furniture & Implements.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="89">
   <si>
     <t>Pennies</t>
   </si>
@@ -280,6 +280,9 @@
   </si>
   <si>
     <t>Charter</t>
+  </si>
+  <si>
+    <t>Cowbells (or other noise makers)</t>
   </si>
 </sst>
 </file>
@@ -668,7 +671,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J106"/>
+  <dimension ref="A1:J107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1114,249 +1117,255 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="4"/>
-      <c r="B65" s="4" t="s">
-        <v>17</v>
+      <c r="B65" s="3" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="4"/>
       <c r="B66" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="4"/>
       <c r="B67" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="4"/>
-      <c r="B68" s="3" t="s">
-        <v>76</v>
+      <c r="B68" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="4"/>
-      <c r="B69" s="4" t="s">
+      <c r="B69" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="4"/>
+      <c r="B70" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
-      <c r="A70" s="5"/>
-      <c r="B70" s="8" t="s">
+    <row r="71" spans="1:2">
+      <c r="A71" s="5"/>
+      <c r="B71" s="8" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" s="4"/>
-      <c r="B71" s="4" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="4"/>
-      <c r="B72" s="3" t="s">
-        <v>73</v>
+      <c r="B72" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="4"/>
       <c r="B73" s="3" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="4"/>
       <c r="B74" s="3" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="4"/>
       <c r="B75" s="3" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="4"/>
       <c r="B76" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="4"/>
       <c r="B77" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="4"/>
       <c r="B78" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="4"/>
       <c r="B79" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="4"/>
+      <c r="B80" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
-      <c r="A80" s="5"/>
-      <c r="B80" s="5"/>
-    </row>
     <row r="81" spans="1:2">
-      <c r="A81" s="2" t="s">
+      <c r="A81" s="5"/>
+      <c r="B81" s="5"/>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B81" s="4"/>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82" s="4"/>
-      <c r="B82" s="4" t="s">
-        <v>56</v>
-      </c>
+      <c r="B82" s="4"/>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="4"/>
-      <c r="B83" s="3" t="s">
-        <v>86</v>
+      <c r="B83" s="4" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="4"/>
-      <c r="B84" s="6" t="s">
-        <v>62</v>
+      <c r="B84" s="3" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="4"/>
-      <c r="B85" s="4" t="s">
-        <v>39</v>
+      <c r="B85" s="6" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="4"/>
       <c r="B86" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="4"/>
       <c r="B87" s="4" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="4"/>
       <c r="B88" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="4"/>
+      <c r="B89" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
-      <c r="A89" s="5"/>
-      <c r="B89" s="5"/>
-    </row>
     <row r="90" spans="1:2">
-      <c r="A90" s="2" t="s">
+      <c r="A90" s="5"/>
+      <c r="B90" s="5"/>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B90" s="4"/>
-    </row>
-    <row r="91" spans="1:2">
-      <c r="A91" s="4"/>
-      <c r="B91" s="4" t="s">
-        <v>55</v>
-      </c>
+      <c r="B91" s="4"/>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="4"/>
-      <c r="B92" s="3" t="s">
-        <v>86</v>
+      <c r="B92" s="4" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="4"/>
-      <c r="B93" s="6" t="s">
-        <v>62</v>
+      <c r="B93" s="3" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="4"/>
-      <c r="B94" s="4" t="s">
-        <v>37</v>
+      <c r="B94" s="6" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="4"/>
-      <c r="B95" s="6" t="s">
-        <v>42</v>
+      <c r="B95" s="4" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="4"/>
-      <c r="B96" s="4" t="s">
-        <v>38</v>
+      <c r="B96" s="6" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="4"/>
       <c r="B97" s="4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="4"/>
       <c r="B98" s="4" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="4"/>
       <c r="B99" s="4" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="4"/>
       <c r="B100" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="4"/>
+      <c r="B101" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
-      <c r="A101" s="5"/>
-      <c r="B101" s="8" t="s">
+    <row r="102" spans="1:2">
+      <c r="A102" s="5"/>
+      <c r="B102" s="8" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
-      <c r="A102" s="4"/>
-      <c r="B102" s="4" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="4"/>
       <c r="B103" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="4"/>
       <c r="B104" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="4"/>
-      <c r="B105" s="6" t="s">
-        <v>48</v>
+      <c r="B105" s="4" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="4"/>
       <c r="B106" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="4"/>
+      <c r="B107" s="6" t="s">
         <v>49</v>
       </c>
     </row>

--- a/pub/Masonic/Degree Furniture & Implements.xlsx
+++ b/pub/Masonic/Degree Furniture & Implements.xlsx
@@ -1152,7 +1152,7 @@
       </c>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="5"/>
+      <c r="A71" s="4"/>
       <c r="B71" s="8" t="s">
         <v>51</v>
       </c>

--- a/pub/Masonic/Degree Furniture & Implements.xlsx
+++ b/pub/Masonic/Degree Furniture & Implements.xlsx
@@ -16,16 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="89">
-  <si>
-    <t>Pennies</t>
-  </si>
-  <si>
-    <t>Overseers Squares (3)</t>
-  </si>
-  <si>
-    <t>Overseers Chairs</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="94">
   <si>
     <t>SO &amp; JO Pedestals (optional)</t>
   </si>
@@ -33,30 +24,9 @@
     <t>Marshall's Sword</t>
   </si>
   <si>
-    <t>Lattice Window</t>
-  </si>
-  <si>
-    <t>Master's Jewel</t>
-  </si>
-  <si>
-    <t>By-Laws</t>
-  </si>
-  <si>
-    <t>Book of Constitutions</t>
-  </si>
-  <si>
-    <t>Oriental Chair</t>
-  </si>
-  <si>
-    <t>Quarter</t>
-  </si>
-  <si>
     <t>Procession Music</t>
   </si>
   <si>
-    <t>Arch &amp; Keystone</t>
-  </si>
-  <si>
     <t>Royal Arch Degree</t>
   </si>
   <si>
@@ -69,72 +39,30 @@
     <t>Past Master Degree</t>
   </si>
   <si>
-    <t>Veils (4)</t>
-  </si>
-  <si>
-    <t>Veil's Swords (4)</t>
-  </si>
-  <si>
-    <t>Serpent</t>
-  </si>
-  <si>
-    <t>Tadmor Water</t>
-  </si>
-  <si>
-    <t>Rough Road</t>
-  </si>
-  <si>
-    <t>Bridge</t>
-  </si>
-  <si>
-    <t>Signet of Zerrubabel</t>
-  </si>
-  <si>
     <t>Crow/Pick/Spade</t>
   </si>
   <si>
     <t>MEM's Gavel</t>
   </si>
   <si>
-    <t>Master's Hat</t>
-  </si>
-  <si>
     <t>RWM's Gavel</t>
   </si>
   <si>
     <t>WM's Gavel</t>
   </si>
   <si>
-    <t>MEHP/COH's Gavel</t>
-  </si>
-  <si>
-    <t>JW's Gavel</t>
-  </si>
-  <si>
     <t>Chapter/Council Degrees - Furniture &amp; Implements</t>
   </si>
   <si>
     <t>Royal Master Degree</t>
   </si>
   <si>
-    <t>TIM's Gavel</t>
-  </si>
-  <si>
     <t>CG's Sword</t>
   </si>
   <si>
-    <t>Chains</t>
-  </si>
-  <si>
     <t>Ahashar's Sword</t>
   </si>
   <si>
-    <t>Altar in North</t>
-  </si>
-  <si>
-    <t>Blue/White Veils</t>
-  </si>
-  <si>
     <t>Altar in Center</t>
   </si>
   <si>
@@ -144,36 +72,12 @@
     <t>Select Master Degree</t>
   </si>
   <si>
-    <t>Arc of the Covenant in NE</t>
-  </si>
-  <si>
     <t>Arc of the Covenant in SW</t>
   </si>
   <si>
-    <t>Pedestal on S of Altar</t>
-  </si>
-  <si>
-    <t>Chisel/Mallet (Receving)</t>
-  </si>
-  <si>
-    <t>Mallet (Receiving)</t>
-  </si>
-  <si>
-    <t>Keystone (Receiving)</t>
-  </si>
-  <si>
     <t>Master's Squares (3)</t>
   </si>
   <si>
-    <t>Black Hiram Abif Veil (optional)</t>
-  </si>
-  <si>
-    <t>Masters' Swords (3)</t>
-  </si>
-  <si>
-    <t>Chapter Aprons</t>
-  </si>
-  <si>
     <t>Master Mason's Apron on Candidate</t>
   </si>
   <si>
@@ -201,33 +105,9 @@
     <t>Bible Opened to Matthew 20:1-16</t>
   </si>
   <si>
-    <t>Secretary's Mark</t>
-  </si>
-  <si>
     <t>Chapter Apron on Candidate</t>
   </si>
   <si>
-    <t>Council Apron(s)</t>
-  </si>
-  <si>
-    <t>Book of the Law on TIM's station</t>
-  </si>
-  <si>
-    <t>Pot of Manna on RIDM's station</t>
-  </si>
-  <si>
-    <t>Aaron's Rod on IPC's station</t>
-  </si>
-  <si>
-    <t>RWSW's Gavel</t>
-  </si>
-  <si>
-    <t>WSW's Gavel</t>
-  </si>
-  <si>
-    <t>WJW's Gavel</t>
-  </si>
-  <si>
     <t>Book of the Law (in Arc)</t>
   </si>
   <si>
@@ -237,42 +117,21 @@
     <t>Aaron's Rod (in Arc)</t>
   </si>
   <si>
-    <t>Keystone (in anteroom)</t>
-  </si>
-  <si>
-    <t>Arc of the Covenant (in anteroom)</t>
-  </si>
-  <si>
     <t>Key to Mysterious Characters (in Arc)</t>
   </si>
   <si>
-    <t>Water Turned to Blood</t>
-  </si>
-  <si>
     <t>Candidates' Harness</t>
   </si>
   <si>
     <t>Candidates' Blindfolds</t>
   </si>
   <si>
-    <t>Three Little Squares (in anteroom)</t>
-  </si>
-  <si>
     <t>6-ply Cable Tow on Candidate</t>
   </si>
   <si>
-    <t>Pieces of Work (2)</t>
-  </si>
-  <si>
-    <t>Candidate's Piece of Work (Keystone)</t>
-  </si>
-  <si>
     <t>Keystone Pattern in WSW's Station</t>
   </si>
   <si>
-    <t>MO's Pedestal</t>
-  </si>
-  <si>
     <t>Media (Babbling Brook, Burning Bush, Holy City)</t>
   </si>
   <si>
@@ -283,6 +142,162 @@
   </si>
   <si>
     <t>Cowbells (or other noise makers)</t>
+  </si>
+  <si>
+    <t>WSW's Gavel (Optional)</t>
+  </si>
+  <si>
+    <t>WJW's Gavel (Optional)</t>
+  </si>
+  <si>
+    <t>Chisel/Mallet (by anti-room door to receve candidate)</t>
+  </si>
+  <si>
+    <t>Pieces of Work (2 in antiroom, one for SD, one for assistant)</t>
+  </si>
+  <si>
+    <t>Piece of Work (Keystone in antiroom for candidate)</t>
+  </si>
+  <si>
+    <t>Overseers Chairs (1 step in front and 2 steps to right of RWM, SW, JW)</t>
+  </si>
+  <si>
+    <t>MO's Pedestal  (right and in from of MO)</t>
+  </si>
+  <si>
+    <t>Overseers Squares (one at each overseers station)</t>
+  </si>
+  <si>
+    <t>Lattice Window in NW corner near antiroom</t>
+  </si>
+  <si>
+    <t>Pennies (in lattice window)</t>
+  </si>
+  <si>
+    <t>Marshall's Chair (in SE along walking line)</t>
+  </si>
+  <si>
+    <t>Secretary's Mark (to present to candidate)</t>
+  </si>
+  <si>
+    <t>Quarter (SD to place in candidates pocket)</t>
+  </si>
+  <si>
+    <t>JW's Gavel (Optional)</t>
+  </si>
+  <si>
+    <t>Mallet (by anti-room door to receive candidate)</t>
+  </si>
+  <si>
+    <t>Master's Jewel (on secretary's desk)</t>
+  </si>
+  <si>
+    <t>Master's Hat (on secretary's desk)</t>
+  </si>
+  <si>
+    <t>By-Laws (on secretary's desk)</t>
+  </si>
+  <si>
+    <t>Book of Constitutions (on secretary's desk)</t>
+  </si>
+  <si>
+    <t>Oriental Chair (1 step in front and 2 steps to right of WM)</t>
+  </si>
+  <si>
+    <t>RWSW's Gavel (Optional)</t>
+  </si>
+  <si>
+    <t>Keystone (by anti-room door to receive candidate)</t>
+  </si>
+  <si>
+    <t>Pedestal on S of Altar (to place arc during procession)</t>
+  </si>
+  <si>
+    <t>Arch (in E to receive keystone during procession)</t>
+  </si>
+  <si>
+    <t>Keystone (in W, RWSW will bring to E during procession)</t>
+  </si>
+  <si>
+    <t>MEHP/COH's Gavel (initially in E)</t>
+  </si>
+  <si>
+    <t>Rough Road (2nd section only, place along N walking line)</t>
+  </si>
+  <si>
+    <t>Tadmor Water (in W)</t>
+  </si>
+  <si>
+    <t>Bridge (in W or NW)</t>
+  </si>
+  <si>
+    <t>Veils (Blue in W, purple, red, white in E)</t>
+  </si>
+  <si>
+    <t>Veil's Swords (one at each veil station)</t>
+  </si>
+  <si>
+    <t>Water Turned to Blood (at 3rd Veil)</t>
+  </si>
+  <si>
+    <t>Serpent (at 1st Veil)</t>
+  </si>
+  <si>
+    <t>Signet of Zerrubabel (at 3rd Veil)</t>
+  </si>
+  <si>
+    <t>Chapter Aprons (one for each candidate)</t>
+  </si>
+  <si>
+    <t>Keystone (in anteroom on Arc, 1st discovery)</t>
+  </si>
+  <si>
+    <t>Three Little Squares (in anteroom on Arc, 2nd discovery)</t>
+  </si>
+  <si>
+    <t>Arc of the Covenant (in anteroom, 3rd discovery)</t>
+  </si>
+  <si>
+    <t>TIM's Gavel (in E)</t>
+  </si>
+  <si>
+    <t>Arc of the Covenant (on pedestal in NE with room for Cheribum)</t>
+  </si>
+  <si>
+    <t>Altar in N (CG &amp; COC to move to center before obligation)</t>
+  </si>
+  <si>
+    <t>Arc of the Covenant (on pedestal in NE)</t>
+  </si>
+  <si>
+    <t>Blue/White Veils (initially closed)</t>
+  </si>
+  <si>
+    <t>Masters' Swords (3 in E)</t>
+  </si>
+  <si>
+    <t>`</t>
+  </si>
+  <si>
+    <t>Ahashar's Chair (in NW corner near antiroom door)</t>
+  </si>
+  <si>
+    <t>Chains (by member's door)</t>
+  </si>
+  <si>
+    <t>Council Apron(s) (one for each candidate)</t>
+  </si>
+  <si>
+    <t>Book of the Law (on TIM's station)</t>
+  </si>
+  <si>
+    <t>Pot of Manna (on RIDM's station)</t>
+  </si>
+  <si>
+    <t>Aaron's Rod (on IPC's station)</t>
+  </si>
+  <si>
+    <t>Black Hiram Abif Veil (optional, drape over HA's chair upon death)</t>
   </si>
 </sst>
 </file>
@@ -367,7 +382,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -376,7 +391,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -671,14 +687,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J107"/>
+  <dimension ref="A1:J111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.28515625" customWidth="1"/>
-    <col min="2" max="2" width="58.7109375" customWidth="1"/>
+    <col min="2" max="2" width="77.140625" customWidth="1"/>
     <col min="3" max="3" width="15.140625" customWidth="1"/>
     <col min="4" max="4" width="5.28515625" customWidth="1"/>
     <col min="5" max="5" width="33.5703125" customWidth="1"/>
@@ -688,12 +704,12 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.75">
       <c r="A1" s="1" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75">
       <c r="A3" s="2" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="7"/>
@@ -701,105 +717,105 @@
     <row r="4" spans="1:3" ht="15.75">
       <c r="A4" s="4"/>
       <c r="B4" s="4" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="C4" s="7"/>
     </row>
     <row r="5" spans="1:3" ht="15.75">
       <c r="A5" s="4"/>
       <c r="B5" s="3" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="C5" s="7"/>
     </row>
     <row r="6" spans="1:3" ht="15.75">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="C6" s="7"/>
     </row>
     <row r="7" spans="1:3" ht="15.75">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="C7" s="7"/>
     </row>
     <row r="8" spans="1:3" ht="15.75">
       <c r="A8" s="4"/>
       <c r="B8" s="4" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="C8" s="7"/>
     </row>
     <row r="9" spans="1:3" ht="15.75">
       <c r="A9" s="4"/>
       <c r="B9" s="3" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="C9" s="7"/>
     </row>
     <row r="10" spans="1:3" ht="15.75">
       <c r="A10" s="4"/>
       <c r="B10" s="3" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="C10" s="7"/>
     </row>
     <row r="11" spans="1:3" ht="15.75">
       <c r="A11" s="4"/>
-      <c r="B11" s="4" t="s">
-        <v>45</v>
+      <c r="B11" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="C11" s="7"/>
     </row>
     <row r="12" spans="1:3" ht="15.75">
       <c r="A12" s="4"/>
       <c r="B12" s="3" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="C12" s="7"/>
     </row>
     <row r="13" spans="1:3" ht="15.75">
       <c r="A13" s="4"/>
       <c r="B13" s="3" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="C13" s="7"/>
     </row>
     <row r="14" spans="1:3" ht="15.75">
       <c r="A14" s="4"/>
       <c r="B14" s="3" t="s">
-        <v>83</v>
+        <v>37</v>
       </c>
       <c r="C14" s="7"/>
     </row>
     <row r="15" spans="1:3" ht="15.75">
       <c r="A15" s="4"/>
-      <c r="B15" s="4" t="s">
-        <v>2</v>
+      <c r="B15" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="C15" s="7"/>
     </row>
     <row r="16" spans="1:3" ht="15.75">
       <c r="A16" s="4"/>
       <c r="B16" s="3" t="s">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="C16" s="7"/>
     </row>
     <row r="17" spans="1:5" ht="15.75">
       <c r="A17" s="4"/>
-      <c r="B17" s="4" t="s">
-        <v>3</v>
+      <c r="B17" s="3" t="s">
+        <v>0</v>
       </c>
       <c r="C17" s="7"/>
     </row>
     <row r="18" spans="1:5" ht="15.75">
       <c r="A18" s="4"/>
-      <c r="B18" s="4" t="s">
-        <v>1</v>
+      <c r="B18" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -807,566 +823,595 @@
     </row>
     <row r="19" spans="1:5" ht="15.75">
       <c r="A19" s="4"/>
-      <c r="B19" s="4" t="s">
-        <v>5</v>
+      <c r="B19" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="C19" s="7"/>
     </row>
     <row r="20" spans="1:5" ht="15.75">
       <c r="A20" s="4"/>
-      <c r="B20" s="4" t="s">
-        <v>0</v>
+      <c r="B20" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="C20" s="7"/>
     </row>
     <row r="21" spans="1:5" ht="15.75">
       <c r="A21" s="4"/>
-      <c r="B21" s="4" t="s">
-        <v>4</v>
+      <c r="B21" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="C21" s="7"/>
     </row>
     <row r="22" spans="1:5" ht="15.75">
       <c r="A22" s="4"/>
       <c r="B22" s="4" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C22" s="7"/>
     </row>
     <row r="23" spans="1:5" ht="15.75">
       <c r="A23" s="4"/>
-      <c r="B23" s="4" t="s">
-        <v>10</v>
+      <c r="B23" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="C23" s="7"/>
     </row>
     <row r="24" spans="1:5" ht="15.75">
       <c r="A24" s="4"/>
-      <c r="B24" s="4" t="s">
-        <v>11</v>
+      <c r="B24" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="C24" s="7"/>
     </row>
     <row r="25" spans="1:5" ht="15.75">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="C25" s="7"/>
     </row>
     <row r="26" spans="1:5" ht="15.75">
-      <c r="A26" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B26" s="4"/>
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
       <c r="C26" s="7"/>
     </row>
     <row r="27" spans="1:5" ht="15.75">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4" t="s">
-        <v>59</v>
-      </c>
+      <c r="A27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="4"/>
       <c r="C27" s="7"/>
     </row>
     <row r="28" spans="1:5" ht="15.75">
       <c r="A28" s="4"/>
-      <c r="B28" s="3" t="s">
-        <v>86</v>
+      <c r="B28" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="C28" s="7"/>
     </row>
     <row r="29" spans="1:5" ht="15.75">
       <c r="A29" s="4"/>
-      <c r="B29" s="4" t="s">
-        <v>52</v>
+      <c r="B29" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="C29" s="7"/>
     </row>
     <row r="30" spans="1:5" ht="15.75">
       <c r="A30" s="4"/>
       <c r="B30" s="4" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="C30" s="7"/>
     </row>
     <row r="31" spans="1:5" ht="15.75">
       <c r="A31" s="4"/>
       <c r="B31" s="4" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C31" s="7"/>
     </row>
     <row r="32" spans="1:5" ht="15.75">
       <c r="A32" s="4"/>
       <c r="B32" s="4" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C32" s="7"/>
     </row>
     <row r="33" spans="1:10" ht="15.75">
       <c r="A33" s="4"/>
-      <c r="B33" s="4" t="s">
-        <v>46</v>
+      <c r="B33" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="C33" s="7"/>
     </row>
     <row r="34" spans="1:10" ht="15.75">
       <c r="A34" s="4"/>
-      <c r="B34" s="4" t="s">
-        <v>6</v>
+      <c r="B34" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="C34" s="7"/>
     </row>
     <row r="35" spans="1:10" ht="15.75">
       <c r="A35" s="4"/>
-      <c r="B35" s="4" t="s">
-        <v>26</v>
+      <c r="B35" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="C35" s="7"/>
     </row>
     <row r="36" spans="1:10" ht="15.75">
       <c r="A36" s="4"/>
       <c r="B36" s="3" t="s">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="C36" s="7"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
     </row>
     <row r="37" spans="1:10" ht="15.75">
       <c r="A37" s="4"/>
-      <c r="B37" s="4" t="s">
-        <v>7</v>
+      <c r="B37" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="C37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
     </row>
     <row r="38" spans="1:10" ht="15.75">
       <c r="A38" s="4"/>
-      <c r="B38" s="4" t="s">
-        <v>8</v>
+      <c r="B38" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="C38" s="7"/>
     </row>
     <row r="39" spans="1:10" ht="15.75">
       <c r="A39" s="4"/>
-      <c r="B39" s="4" t="s">
-        <v>9</v>
+      <c r="B39" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="C39" s="7"/>
     </row>
     <row r="40" spans="1:10" ht="15.75">
-      <c r="A40" s="5"/>
-      <c r="B40" s="5"/>
+      <c r="A40" s="4"/>
+      <c r="B40" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
     </row>
     <row r="41" spans="1:10" ht="15.75">
-      <c r="A41" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B41" s="4"/>
+      <c r="A41" s="5"/>
+      <c r="B41" s="5"/>
       <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
     </row>
     <row r="42" spans="1:10" ht="15.75">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4" t="s">
-        <v>58</v>
-      </c>
+      <c r="A42" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" s="4"/>
       <c r="C42" s="7"/>
     </row>
     <row r="43" spans="1:10" ht="15.75">
       <c r="A43" s="4"/>
-      <c r="B43" s="3" t="s">
-        <v>86</v>
+      <c r="B43" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="C43" s="7"/>
     </row>
     <row r="44" spans="1:10" ht="15.75">
       <c r="A44" s="4"/>
-      <c r="B44" s="4" t="s">
-        <v>52</v>
+      <c r="B44" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="C44" s="7"/>
     </row>
     <row r="45" spans="1:10" ht="15.75">
       <c r="A45" s="4"/>
-      <c r="B45" s="3" t="s">
-        <v>80</v>
+      <c r="B45" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="C45" s="7"/>
     </row>
     <row r="46" spans="1:10" ht="15.75">
       <c r="A46" s="4"/>
-      <c r="B46" s="4" t="s">
-        <v>25</v>
+      <c r="B46" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="C46" s="7"/>
     </row>
     <row r="47" spans="1:10" ht="15.75">
       <c r="A47" s="4"/>
-      <c r="B47" s="3" t="s">
-        <v>67</v>
+      <c r="B47" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="C47" s="7"/>
     </row>
     <row r="48" spans="1:10" ht="15.75">
       <c r="A48" s="4"/>
-      <c r="B48" s="4" t="s">
-        <v>47</v>
+      <c r="B48" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="C48" s="7"/>
     </row>
     <row r="49" spans="1:3" ht="15.75">
       <c r="A49" s="4"/>
-      <c r="B49" s="4" t="s">
-        <v>43</v>
+      <c r="B49" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="C49" s="7"/>
     </row>
     <row r="50" spans="1:3" ht="15.75">
       <c r="A50" s="4"/>
-      <c r="B50" s="4" t="s">
-        <v>44</v>
+      <c r="B50" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="C50" s="7"/>
     </row>
     <row r="51" spans="1:3" ht="15.75">
       <c r="A51" s="4"/>
-      <c r="B51" s="4" t="s">
-        <v>4</v>
+      <c r="B51" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="C51" s="7"/>
     </row>
     <row r="52" spans="1:3" ht="15.75">
       <c r="A52" s="4"/>
-      <c r="B52" s="4" t="s">
-        <v>12</v>
+      <c r="B52" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="C52" s="7"/>
     </row>
     <row r="53" spans="1:3" ht="15.75">
       <c r="A53" s="4"/>
       <c r="B53" s="4" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C53" s="7"/>
     </row>
     <row r="54" spans="1:3" ht="15.75">
-      <c r="A54" s="5"/>
-      <c r="B54" s="5"/>
+      <c r="A54" s="4"/>
+      <c r="B54" s="3" t="s">
+        <v>65</v>
+      </c>
       <c r="C54" s="7"/>
     </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B55" s="4"/>
-    </row>
-    <row r="56" spans="1:3">
+    <row r="55" spans="1:3" ht="15.75">
+      <c r="A55" s="4"/>
+      <c r="B55" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C55" s="7"/>
+    </row>
+    <row r="56" spans="1:3" ht="15.75">
       <c r="A56" s="4"/>
       <c r="B56" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="4"/>
-      <c r="B57" s="3" t="s">
-        <v>86</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C56" s="7"/>
+    </row>
+    <row r="57" spans="1:3" ht="15.75">
+      <c r="A57" s="5"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="7"/>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="4"/>
-      <c r="B58" s="4" t="s">
-        <v>52</v>
-      </c>
+      <c r="A58" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B58" s="4"/>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="4"/>
-      <c r="B59" s="3" t="s">
-        <v>77</v>
+      <c r="B59" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="4"/>
       <c r="B60" s="3" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="4"/>
       <c r="B61" s="4" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="4"/>
-      <c r="B62" s="4" t="s">
-        <v>21</v>
+      <c r="B62" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="4"/>
-      <c r="B63" s="4" t="s">
-        <v>20</v>
+      <c r="B63" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="4"/>
-      <c r="B64" s="4" t="s">
-        <v>22</v>
+      <c r="B64" s="3" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="4"/>
       <c r="B65" s="3" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="4"/>
-      <c r="B66" s="4" t="s">
-        <v>17</v>
+      <c r="B66" s="3" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="4"/>
-      <c r="B67" s="4" t="s">
-        <v>18</v>
+      <c r="B67" s="3" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="4"/>
-      <c r="B68" s="4" t="s">
-        <v>19</v>
+      <c r="B68" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="4"/>
       <c r="B69" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="4"/>
-      <c r="B70" s="4" t="s">
-        <v>23</v>
+      <c r="B70" s="3" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="4"/>
-      <c r="B71" s="8" t="s">
-        <v>51</v>
+      <c r="B71" s="3" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="4"/>
-      <c r="B72" s="4" t="s">
-        <v>24</v>
+      <c r="B72" s="3" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="4"/>
       <c r="B73" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="4"/>
-      <c r="B74" s="3" t="s">
-        <v>79</v>
+      <c r="B74" s="8" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="4"/>
-      <c r="B75" s="3" t="s">
-        <v>74</v>
+      <c r="B75" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="4"/>
       <c r="B76" s="3" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="4"/>
       <c r="B77" s="3" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="4"/>
       <c r="B78" s="3" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="4"/>
       <c r="B79" s="3" t="s">
-        <v>75</v>
+        <v>30</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="4"/>
       <c r="B80" s="3" t="s">
-        <v>85</v>
+        <v>31</v>
       </c>
     </row>
     <row r="81" spans="1:2">
-      <c r="A81" s="5"/>
-      <c r="B81" s="5"/>
+      <c r="A81" s="4"/>
+      <c r="B81" s="3" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="82" spans="1:2">
-      <c r="A82" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B82" s="4"/>
+      <c r="A82" s="4"/>
+      <c r="B82" s="3" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="4"/>
-      <c r="B83" s="4" t="s">
-        <v>56</v>
+      <c r="B83" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="84" spans="1:2">
-      <c r="A84" s="4"/>
-      <c r="B84" s="3" t="s">
-        <v>86</v>
-      </c>
+      <c r="A84" s="5"/>
+      <c r="B84" s="5"/>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="4"/>
-      <c r="B85" s="6" t="s">
-        <v>62</v>
-      </c>
+      <c r="A85" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B85" s="4"/>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="4"/>
       <c r="B86" s="4" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="4"/>
-      <c r="B87" s="4" t="s">
-        <v>40</v>
+      <c r="B87" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="4"/>
-      <c r="B88" s="4" t="s">
-        <v>33</v>
+      <c r="B88" s="6" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="4"/>
       <c r="B89" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
     </row>
     <row r="90" spans="1:2">
-      <c r="A90" s="5"/>
-      <c r="B90" s="5"/>
+      <c r="A90" s="4"/>
+      <c r="B90" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="91" spans="1:2">
-      <c r="A91" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B91" s="4"/>
+      <c r="A91" s="4"/>
+      <c r="B91" s="3" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="4"/>
-      <c r="B92" s="4" t="s">
-        <v>55</v>
+      <c r="B92" s="3" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="93" spans="1:2">
-      <c r="A93" s="4"/>
-      <c r="B93" s="3" t="s">
-        <v>86</v>
-      </c>
+      <c r="A93" s="5"/>
+      <c r="B93" s="5"/>
     </row>
     <row r="94" spans="1:2">
-      <c r="A94" s="4"/>
-      <c r="B94" s="6" t="s">
-        <v>62</v>
-      </c>
+      <c r="A94" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B94" s="4"/>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="4"/>
       <c r="B95" s="4" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="4"/>
-      <c r="B96" s="6" t="s">
-        <v>42</v>
+      <c r="B96" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="4"/>
-      <c r="B97" s="4" t="s">
-        <v>38</v>
+      <c r="B97" s="6" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="4"/>
-      <c r="B98" s="4" t="s">
-        <v>34</v>
+      <c r="B98" s="3" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="4"/>
-      <c r="B99" s="4" t="s">
-        <v>50</v>
+      <c r="B99" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="4"/>
-      <c r="B100" s="4" t="s">
-        <v>36</v>
+      <c r="B100" s="3" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="4"/>
       <c r="B101" s="4" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
     </row>
     <row r="102" spans="1:2">
-      <c r="A102" s="5"/>
-      <c r="B102" s="8" t="s">
-        <v>63</v>
+      <c r="A102" s="4"/>
+      <c r="B102" s="3" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="103" spans="1:2">
-      <c r="A103" s="4"/>
-      <c r="B103" s="4" t="s">
-        <v>64</v>
+      <c r="A103" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="4"/>
       <c r="B104" s="4" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="4"/>
-      <c r="B105" s="4" t="s">
-        <v>66</v>
+      <c r="B105" s="3" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="106" spans="1:2">
-      <c r="A106" s="4"/>
-      <c r="B106" s="6" t="s">
-        <v>48</v>
+      <c r="A106" s="5"/>
+      <c r="B106" s="8" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="4"/>
-      <c r="B107" s="6" t="s">
-        <v>49</v>
+      <c r="B107" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="4"/>
+      <c r="B108" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="4"/>
+      <c r="B109" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="4"/>
+      <c r="B110" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="4"/>
+      <c r="B111" s="9" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/pub/Masonic/Degree Furniture & Implements.xlsx
+++ b/pub/Masonic/Degree Furniture & Implements.xlsx
@@ -129,9 +129,6 @@
     <t>6-ply Cable Tow on Candidate</t>
   </si>
   <si>
-    <t>Keystone Pattern in WSW's Station</t>
-  </si>
-  <si>
     <t>Media (Babbling Brook, Burning Bush, Holy City)</t>
   </si>
   <si>
@@ -168,9 +165,6 @@
     <t>Overseers Squares (one at each overseers station)</t>
   </si>
   <si>
-    <t>Lattice Window in NW corner near antiroom</t>
-  </si>
-  <si>
     <t>Pennies (in lattice window)</t>
   </si>
   <si>
@@ -180,9 +174,6 @@
     <t>Secretary's Mark (to present to candidate)</t>
   </si>
   <si>
-    <t>Quarter (SD to place in candidates pocket)</t>
-  </si>
-  <si>
     <t>JW's Gavel (Optional)</t>
   </si>
   <si>
@@ -298,6 +289,15 @@
   </si>
   <si>
     <t>Black Hiram Abif Veil (optional, drape over HA's chair upon death)</t>
+  </si>
+  <si>
+    <t>Quarter (SD to place in candidate's pocket)</t>
+  </si>
+  <si>
+    <t>Lattice Window (in NW corner near antiroom)</t>
+  </si>
+  <si>
+    <t>Keystone Pattern (in WSW's Station)</t>
   </si>
 </sst>
 </file>
@@ -724,7 +724,7 @@
     <row r="5" spans="1:3" ht="15.75">
       <c r="A5" s="4"/>
       <c r="B5" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5" s="7"/>
     </row>
@@ -752,56 +752,56 @@
     <row r="9" spans="1:3" ht="15.75">
       <c r="A9" s="4"/>
       <c r="B9" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9" s="7"/>
     </row>
     <row r="10" spans="1:3" ht="15.75">
       <c r="A10" s="4"/>
       <c r="B10" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10" s="7"/>
     </row>
     <row r="11" spans="1:3" ht="15.75">
       <c r="A11" s="4"/>
       <c r="B11" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C11" s="7"/>
     </row>
     <row r="12" spans="1:3" ht="15.75">
       <c r="A12" s="4"/>
       <c r="B12" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C12" s="7"/>
     </row>
     <row r="13" spans="1:3" ht="15.75">
       <c r="A13" s="4"/>
       <c r="B13" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C13" s="7"/>
     </row>
     <row r="14" spans="1:3" ht="15.75">
       <c r="A14" s="4"/>
       <c r="B14" s="3" t="s">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c r="C14" s="7"/>
     </row>
     <row r="15" spans="1:3" ht="15.75">
       <c r="A15" s="4"/>
       <c r="B15" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C15" s="7"/>
     </row>
     <row r="16" spans="1:3" ht="15.75">
       <c r="A16" s="4"/>
       <c r="B16" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C16" s="7"/>
     </row>
@@ -815,7 +815,7 @@
     <row r="18" spans="1:5" ht="15.75">
       <c r="A18" s="4"/>
       <c r="B18" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -824,21 +824,21 @@
     <row r="19" spans="1:5" ht="15.75">
       <c r="A19" s="4"/>
       <c r="B19" s="3" t="s">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="C19" s="7"/>
     </row>
     <row r="20" spans="1:5" ht="15.75">
       <c r="A20" s="4"/>
       <c r="B20" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C20" s="7"/>
     </row>
     <row r="21" spans="1:5" ht="15.75">
       <c r="A21" s="4"/>
       <c r="B21" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C21" s="7"/>
     </row>
@@ -852,14 +852,14 @@
     <row r="23" spans="1:5" ht="15.75">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C23" s="7"/>
     </row>
     <row r="24" spans="1:5" ht="15.75">
       <c r="A24" s="4"/>
       <c r="B24" s="3" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="C24" s="7"/>
     </row>
@@ -892,7 +892,7 @@
     <row r="29" spans="1:5" ht="15.75">
       <c r="A29" s="4"/>
       <c r="B29" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C29" s="7"/>
     </row>
@@ -920,35 +920,35 @@
     <row r="33" spans="1:10" ht="15.75">
       <c r="A33" s="4"/>
       <c r="B33" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C33" s="7"/>
     </row>
     <row r="34" spans="1:10" ht="15.75">
       <c r="A34" s="4"/>
       <c r="B34" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C34" s="7"/>
     </row>
     <row r="35" spans="1:10" ht="15.75">
       <c r="A35" s="4"/>
       <c r="B35" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C35" s="7"/>
     </row>
     <row r="36" spans="1:10" ht="15.75">
       <c r="A36" s="4"/>
       <c r="B36" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C36" s="7"/>
     </row>
     <row r="37" spans="1:10" ht="15.75">
       <c r="A37" s="4"/>
       <c r="B37" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C37" s="7"/>
       <c r="I37" s="7"/>
@@ -957,21 +957,21 @@
     <row r="38" spans="1:10" ht="15.75">
       <c r="A38" s="4"/>
       <c r="B38" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C38" s="7"/>
     </row>
     <row r="39" spans="1:10" ht="15.75">
       <c r="A39" s="4"/>
       <c r="B39" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C39" s="7"/>
     </row>
     <row r="40" spans="1:10" ht="15.75">
       <c r="A40" s="4"/>
       <c r="B40" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C40" s="7"/>
     </row>
@@ -999,7 +999,7 @@
     <row r="44" spans="1:10" ht="15.75">
       <c r="A44" s="4"/>
       <c r="B44" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C44" s="7"/>
     </row>
@@ -1027,14 +1027,14 @@
     <row r="48" spans="1:10" ht="15.75">
       <c r="A48" s="4"/>
       <c r="B48" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C48" s="7"/>
     </row>
     <row r="49" spans="1:3" ht="15.75">
       <c r="A49" s="4"/>
       <c r="B49" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C49" s="7"/>
     </row>
@@ -1048,14 +1048,14 @@
     <row r="51" spans="1:3" ht="15.75">
       <c r="A51" s="4"/>
       <c r="B51" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C51" s="7"/>
     </row>
     <row r="52" spans="1:3" ht="15.75">
       <c r="A52" s="4"/>
       <c r="B52" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C52" s="7"/>
     </row>
@@ -1069,14 +1069,14 @@
     <row r="54" spans="1:3" ht="15.75">
       <c r="A54" s="4"/>
       <c r="B54" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C54" s="7"/>
     </row>
     <row r="55" spans="1:3" ht="15.75">
       <c r="A55" s="4"/>
       <c r="B55" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C55" s="7"/>
     </row>
@@ -1107,7 +1107,7 @@
     <row r="60" spans="1:3">
       <c r="A60" s="4"/>
       <c r="B60" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1131,67 +1131,67 @@
     <row r="64" spans="1:3">
       <c r="A64" s="4"/>
       <c r="B64" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="4"/>
       <c r="B65" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="4"/>
       <c r="B66" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="4"/>
       <c r="B67" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="4"/>
       <c r="B68" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="4"/>
       <c r="B69" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="4"/>
       <c r="B70" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="4"/>
       <c r="B71" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="4"/>
       <c r="B72" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="4"/>
       <c r="B73" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="4"/>
       <c r="B74" s="8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1203,19 +1203,19 @@
     <row r="76" spans="1:2">
       <c r="A76" s="4"/>
       <c r="B76" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="4"/>
       <c r="B77" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="4"/>
       <c r="B78" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1245,7 +1245,7 @@
     <row r="83" spans="1:2">
       <c r="A83" s="4"/>
       <c r="B83" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1267,7 +1267,7 @@
     <row r="87" spans="1:2">
       <c r="A87" s="4"/>
       <c r="B87" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1291,13 +1291,13 @@
     <row r="91" spans="1:2">
       <c r="A91" s="4"/>
       <c r="B91" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="4"/>
       <c r="B92" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1319,7 +1319,7 @@
     <row r="96" spans="1:2">
       <c r="A96" s="4"/>
       <c r="B96" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1331,19 +1331,19 @@
     <row r="98" spans="1:2">
       <c r="A98" s="4"/>
       <c r="B98" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="4"/>
       <c r="B99" s="9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="4"/>
       <c r="B100" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1355,15 +1355,15 @@
     <row r="102" spans="1:2">
       <c r="A102" s="4"/>
       <c r="B102" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1375,31 +1375,31 @@
     <row r="105" spans="1:2">
       <c r="A105" s="4"/>
       <c r="B105" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="106" spans="1:2">
-      <c r="A106" s="5"/>
+      <c r="A106" s="4"/>
       <c r="B106" s="8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="4"/>
       <c r="B107" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="4"/>
       <c r="B108" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="4"/>
       <c r="B109" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1411,7 +1411,7 @@
     <row r="111" spans="1:2">
       <c r="A111" s="4"/>
       <c r="B111" s="9" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1420,6 +1420,10 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <rowBreaks count="2" manualBreakCount="2">
+    <brk id="40" max="16383" man="1"/>
+    <brk id="83" max="16383" man="1"/>
+  </rowBreaks>
 </worksheet>
 </file>
 
